--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="9">
   <x:si>
     <x:t>Summary</x:t>
   </x:si>
@@ -31,19 +31,6 @@
     <x:t>Work Info</x:t>
   </x:si>
   <x:si>
-    <x:t>Emarsys WebExtend Integration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RU-335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oguz.atli</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I worked on emarsys bugs eccording to new emarsys document. I fixed all.
-</x:t>
-  </x:si>
-  <x:si>
     <x:t>Refactoring checkout</x:t>
   </x:si>
   <x:si>
@@ -54,63 +41,6 @@
   </x:si>
   <x:si>
     <x:t>Do only priceOrder in Online Payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Testinium FE API Automation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RU-846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>osmancan.canki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>i fixed to run test failed. It was about path. Also i started to create guest checkout test. I’ll push the code to repo tonight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loyalty Slice winning rule changes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RU-834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ersin.demircan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cancellation and completion of the orders that are used free pizza were worked on.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Component ID Settings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RU-852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>taha.tepedelen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have been working on components id for testinium.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Side Selection Revisions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RU-839</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nurullah.unlu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feedbacks are clarified, revisions applied. Deployed to test environments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pre-selection of ServiceType (Delivery or CO) by URL parameter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RU-500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow applied and deploy to the test environments.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -507,108 +437,6 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
